--- a/Libraries/Vehicle/Linkage/Subframe_Conn/sm_car_data_Subframe_Conn_Link_AxRad.xlsx
+++ b/Libraries/Vehicle/Linkage/Subframe_Conn/sm_car_data_Subframe_Conn_Link_AxRad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Subframe_Conn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E742BFA6-2581-4892-AD5E-877A11B6AA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06691FC-7DBF-4FBB-B42E-A15A43CB9CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2265" windowWidth="21600" windowHeight="11295" tabRatio="988" activeTab="3" xr2:uid="{5C9B011B-FECB-46A4-81D1-C980D278E613}"/>
+    <workbookView xWindow="3135" yWindow="2025" windowWidth="21600" windowHeight="11235" tabRatio="988" activeTab="3" xr2:uid="{5C9B011B-FECB-46A4-81D1-C980D278E613}"/>
   </bookViews>
   <sheets>
     <sheet name="BUJ_SLGf_5LS2F_UAF" sheetId="6" r:id="rId1"/>
@@ -25266,7 +25266,7 @@
       <selection activeCell="P28" sqref="P28:P34"/>
       <selection pane="topRight" activeCell="P28" sqref="P28:P34"/>
       <selection pane="bottomLeft" activeCell="P28" sqref="P28:P34"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
